--- a/average_satisfaction_random_g5.xlsx
+++ b/average_satisfaction_random_g5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEDAAD6-EA49-491A-B6C5-D2E958F4F29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642802C2-2692-44D0-876D-3B9C85DE52FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{ECEDE16B-511A-43A2-91BA-D305D626AFF6}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{46CAF51F-1261-43A3-A88D-2C18563C630F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1223FF9-DFC8-4584-A882-8E8079C9E26A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F26908E-5623-4314-852E-B823575EC832}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.79358934241331369</v>
+        <v>0.88131990054716536</v>
       </c>
       <c r="B1">
-        <v>0.85698890894389723</v>
+        <v>0.85289974663193158</v>
       </c>
       <c r="C1">
-        <v>0.86384175519649897</v>
+        <v>0.93487200051260977</v>
       </c>
       <c r="D1">
-        <v>0.83293322400484315</v>
+        <v>0.90903952031079394</v>
       </c>
       <c r="E1">
-        <v>0.86671101098449965</v>
+        <v>0.87994674340336232</v>
       </c>
       <c r="F1">
-        <v>0.83790287482366288</v>
+        <v>0.77023813244907335</v>
       </c>
       <c r="G1">
-        <v>0.94810995754335681</v>
+        <v>0.92907257457734327</v>
       </c>
       <c r="H1">
-        <v>0.81500175234253203</v>
+        <v>0.93126471706726566</v>
       </c>
       <c r="I1">
-        <v>0.73114148143784874</v>
+        <v>0.85376422040111632</v>
       </c>
       <c r="J1">
-        <v>0.83236526737584215</v>
+        <v>0.92772315605432454</v>
       </c>
       <c r="K1">
-        <v>0.82272906762549469</v>
+        <v>0.84016395723200621</v>
       </c>
       <c r="L1">
-        <v>1.0070659570603138</v>
+        <v>0.84355784154714464</v>
       </c>
       <c r="M1">
-        <v>0.78406737458931575</v>
+        <v>0.75454855729136228</v>
       </c>
       <c r="N1">
-        <v>0.78234624501350025</v>
+        <v>0.78674011818953804</v>
       </c>
       <c r="O1">
-        <v>0.88664207108351001</v>
+        <v>0.86689691986586048</v>
       </c>
       <c r="P1">
-        <v>0.86870036923499205</v>
+        <v>0.79652288906802227</v>
       </c>
       <c r="Q1">
-        <v>0.79409866112666216</v>
+        <v>0.77669458589029106</v>
       </c>
       <c r="R1">
-        <v>0.78513024288951616</v>
+        <v>0.92939869347201254</v>
       </c>
       <c r="S1">
-        <v>0.72977265224316756</v>
+        <v>0.81772867394965376</v>
       </c>
       <c r="T1">
-        <v>0.86283740560496158</v>
+        <v>0.78795421798033638</v>
       </c>
       <c r="U1">
-        <v>0.82202947690517147</v>
+        <v>0.78350769612442628</v>
       </c>
       <c r="V1">
-        <v>0.83439467300887715</v>
+        <v>0.90990569797579968</v>
       </c>
       <c r="W1">
-        <v>0.72037947036383787</v>
+        <v>0.83463761100351752</v>
       </c>
       <c r="X1">
-        <v>1.0160595185342152</v>
+        <v>0.76105114586173228</v>
       </c>
       <c r="Y1">
-        <v>0.9419335177038316</v>
+        <v>0.80552695075931702</v>
       </c>
       <c r="Z1">
-        <v>0.89482952898753521</v>
+        <v>0.83793582165161207</v>
       </c>
       <c r="AA1">
-        <v>0.95530994197656138</v>
+        <v>0.88813613535774427</v>
       </c>
       <c r="AB1">
-        <v>0.80096046715946878</v>
+        <v>0.79832358691714367</v>
       </c>
       <c r="AC1">
-        <v>0.87989299878606619</v>
+        <v>0.79549570069830577</v>
       </c>
       <c r="AD1">
-        <v>0.83013560203944603</v>
+        <v>0.81142610078123933</v>
       </c>
       <c r="AE1">
-        <v>0.81583617765936101</v>
+        <v>0.73781407502462371</v>
       </c>
       <c r="AF1">
-        <v>0.84260777877432458</v>
+        <v>0.82332777284183101</v>
       </c>
       <c r="AG1">
-        <v>0.77597140463347314</v>
+        <v>0.78304301687663669</v>
       </c>
       <c r="AH1">
-        <v>0.81133447423006622</v>
+        <v>0.82575639518459332</v>
       </c>
       <c r="AI1">
-        <v>0.91007785501562288</v>
+        <v>0.81905057060592357</v>
       </c>
       <c r="AJ1">
-        <v>0.7917431896083017</v>
+        <v>0.94068490717247288</v>
       </c>
       <c r="AK1">
-        <v>0.82651662343504151</v>
+        <v>0.93890600344082509</v>
       </c>
       <c r="AL1">
-        <v>0.83991537582455988</v>
+        <v>1.0080885849293564</v>
       </c>
       <c r="AM1">
-        <v>0.7808239502321711</v>
+        <v>0.77754749262590395</v>
       </c>
       <c r="AN1">
-        <v>0.86911451221218272</v>
+        <v>0.74746419422906207</v>
       </c>
       <c r="AO1">
-        <v>0.83547142218918324</v>
+        <v>0.82807874567733764</v>
       </c>
       <c r="AP1">
-        <v>0.81436757236782398</v>
+        <v>0.91459563620284701</v>
       </c>
       <c r="AQ1">
-        <v>0.9111394164175376</v>
+        <v>0.82290670382681252</v>
       </c>
       <c r="AR1">
-        <v>0.81524383329324246</v>
+        <v>0.85018294356018898</v>
       </c>
       <c r="AS1">
-        <v>0.76675994661413738</v>
+        <v>0.81894092649714445</v>
       </c>
       <c r="AT1">
-        <v>0.86453403340744739</v>
+        <v>0.87653811158617545</v>
       </c>
       <c r="AU1">
-        <v>0.80297380865919354</v>
+        <v>0.84584019384156939</v>
       </c>
       <c r="AV1">
-        <v>0.83732705179426048</v>
+        <v>0.85234057246350303</v>
       </c>
       <c r="AW1">
-        <v>0.92132034592977352</v>
+        <v>0.88279420233646377</v>
       </c>
       <c r="AX1">
-        <v>0.8695972288353615</v>
+        <v>0.90229510055408413</v>
       </c>
       <c r="AY1">
-        <v>0.96586536889532881</v>
+        <v>0.87019408472033455</v>
       </c>
       <c r="AZ1">
-        <v>0.94829226521422683</v>
+        <v>0.79448450433569928</v>
       </c>
       <c r="BA1">
-        <v>0.81770606938014145</v>
+        <v>0.76130494438913443</v>
       </c>
       <c r="BB1">
-        <v>0.82175419889935775</v>
+        <v>0.67609276089379655</v>
       </c>
       <c r="BC1">
-        <v>0.73594367637849245</v>
+        <v>0.75122576868255642</v>
       </c>
       <c r="BD1">
-        <v>0.80058316583580602</v>
+        <v>0.98449327293099742</v>
       </c>
       <c r="BE1">
-        <v>0.77910375158679301</v>
+        <v>0.7915727479065926</v>
       </c>
       <c r="BF1">
-        <v>0.84494735027704149</v>
+        <v>0.84873251121661131</v>
       </c>
       <c r="BG1">
-        <v>0.76797794378530015</v>
+        <v>0.95001673189785496</v>
       </c>
       <c r="BH1">
-        <v>0.87011864893285829</v>
+        <v>0.9081330597437608</v>
       </c>
       <c r="BI1">
-        <v>0.8939091471688666</v>
+        <v>0.88939122151896288</v>
       </c>
       <c r="BJ1">
-        <v>0.80244050389157362</v>
+        <v>0.74347172869941869</v>
       </c>
       <c r="BK1">
-        <v>0.87913861458945741</v>
+        <v>0.86110781936990755</v>
       </c>
       <c r="BL1">
-        <v>0.76830489533518875</v>
+        <v>0.81248934222065328</v>
       </c>
       <c r="BM1">
-        <v>0.89030431195855064</v>
+        <v>0.78577992891908233</v>
       </c>
       <c r="BN1">
-        <v>0.81796618877384863</v>
+        <v>0.91488056518412753</v>
       </c>
       <c r="BO1">
-        <v>0.78750215039504889</v>
+        <v>0.70003937931305249</v>
       </c>
       <c r="BP1">
-        <v>0.77890835269839231</v>
+        <v>0.87773300908657237</v>
       </c>
       <c r="BQ1">
-        <v>0.80781515965511552</v>
+        <v>0.69930101077908102</v>
       </c>
       <c r="BR1">
-        <v>0.88099144440016319</v>
+        <v>0.8579683142009723</v>
       </c>
       <c r="BS1">
-        <v>0.76332561423665612</v>
+        <v>0.90030807205793062</v>
       </c>
       <c r="BT1">
-        <v>0.81573941717999399</v>
+        <v>0.74562822036795884</v>
       </c>
       <c r="BU1">
-        <v>0.84398596572329865</v>
+        <v>0.86829358378542076</v>
       </c>
       <c r="BV1">
-        <v>0.81664815002861291</v>
+        <v>1.0031019769255065</v>
       </c>
       <c r="BW1">
-        <v>0.84244593746871477</v>
+        <v>0.77282391987985788</v>
       </c>
       <c r="BX1">
-        <v>0.7912824132847639</v>
+        <v>0.92716423875790355</v>
       </c>
       <c r="BY1">
-        <v>0.87724322689611134</v>
+        <v>0.81191191623258752</v>
       </c>
       <c r="BZ1">
-        <v>0.75438424873891197</v>
+        <v>0.81729282728895081</v>
       </c>
       <c r="CA1">
-        <v>0.7304194251950763</v>
+        <v>0.95242497730532072</v>
       </c>
       <c r="CB1">
-        <v>0.87815226981103489</v>
+        <v>0.82621874579897392</v>
       </c>
       <c r="CC1">
-        <v>0.83299843051313804</v>
+        <v>0.87593841186166088</v>
       </c>
       <c r="CD1">
-        <v>0.77608396645191391</v>
+        <v>0.78794537826061006</v>
       </c>
       <c r="CE1">
-        <v>0.80186180086211267</v>
+        <v>0.86773843019160546</v>
       </c>
       <c r="CF1">
-        <v>0.78385612778395508</v>
+        <v>0.92595978125905665</v>
       </c>
       <c r="CG1">
-        <v>0.79218927944701412</v>
+        <v>0.81414818775290065</v>
       </c>
       <c r="CH1">
-        <v>0.81370983857101808</v>
+        <v>0.86172834897056694</v>
       </c>
       <c r="CI1">
-        <v>0.77794009488029581</v>
+        <v>0.83691407684269281</v>
       </c>
       <c r="CJ1">
-        <v>0.91487645011534469</v>
+        <v>0.77824902959719156</v>
       </c>
       <c r="CK1">
-        <v>0.88948299318326729</v>
+        <v>0.81216814517634628</v>
       </c>
       <c r="CL1">
-        <v>0.87611108955093686</v>
+        <v>0.7270357829070293</v>
       </c>
       <c r="CM1">
-        <v>0.70875704367917436</v>
+        <v>0.75711216144794113</v>
       </c>
       <c r="CN1">
-        <v>0.80458787703114787</v>
+        <v>0.84879688894808003</v>
       </c>
       <c r="CO1">
-        <v>0.88636832408631061</v>
+        <v>0.86343967911444386</v>
       </c>
       <c r="CP1">
-        <v>0.94693960282805678</v>
+        <v>0.8873897034760353</v>
       </c>
       <c r="CQ1">
-        <v>0.82008406147523816</v>
+        <v>0.81972459709331069</v>
       </c>
       <c r="CR1">
-        <v>0.79828636665316743</v>
+        <v>0.88584655720005079</v>
       </c>
       <c r="CS1">
-        <v>0.81254409291072005</v>
+        <v>0.9366188880791998</v>
       </c>
       <c r="CT1">
-        <v>0.88123304824590842</v>
+        <v>0.79547231028492804</v>
       </c>
       <c r="CU1">
-        <v>0.93245240450489508</v>
+        <v>0.74245690982130019</v>
       </c>
       <c r="CV1">
-        <v>0.77895918583919077</v>
+        <v>0.86892813456452711</v>
       </c>
     </row>
   </sheetData>
